--- a/todoテーブル定義書.xlsx
+++ b/todoテーブル定義書.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>todoテーブル</t>
+  </si>
+  <si>
+    <t>trn_todo</t>
   </si>
   <si>
     <t>論理カラム名</t>
@@ -99,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,15 +116,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -129,15 +132,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,61 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,16 +170,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +208,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,187 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +474,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,17 +550,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,50 +575,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,145 +583,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1060,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1076,132 +1073,135 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>255</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>255</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1209,18 +1209,18 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>

--- a/todoテーブル定義書.xlsx
+++ b/todoテーブル定義書.xlsx
@@ -61,7 +61,7 @@
     <t>予定名</t>
   </si>
   <si>
-    <t>name</t>
+    <t>schedule</t>
   </si>
   <si>
     <t xml:space="preserve">varchar </t>
@@ -117,6 +117,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -125,7 +147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,17 +162,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,9 +213,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,89 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,181 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -496,32 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,26 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,6 +566,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,7 +583,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,136 +592,136 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
